--- a/Extensive/Food.xlsx
+++ b/Extensive/Food.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="200" windowWidth="25360" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="2320" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="143">
   <si>
     <t>Entity</t>
   </si>
@@ -33,12 +35,6 @@
     <t>I am hungry</t>
   </si>
   <si>
-    <t>cheeseburger</t>
-  </si>
-  <si>
-    <t>fries</t>
-  </si>
-  <si>
     <t>soda</t>
   </si>
   <si>
@@ -66,17 +62,401 @@
     <t>complete food order</t>
   </si>
   <si>
-    <t>I want something to eat</t>
-  </si>
-  <si>
-    <t>I don’t know what I want</t>
+    <t>Can I get a cheeseburger</t>
+  </si>
+  <si>
+    <t>Large fries please</t>
+  </si>
+  <si>
+    <t>Small coke</t>
+  </si>
+  <si>
+    <t>I want a medium fries and small coke</t>
+  </si>
+  <si>
+    <t>I want a large cheese burger small fries with ice cream</t>
+  </si>
+  <si>
+    <t>nuggets</t>
+  </si>
+  <si>
+    <t>that’s it</t>
+  </si>
+  <si>
+    <t>no thanks</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>i am hungry</t>
+  </si>
+  <si>
+    <t>small diet coke</t>
+  </si>
+  <si>
+    <t>small diet coke medium fries large cheeseburger and cookies</t>
+  </si>
+  <si>
+    <t>cheeseburger fries coke nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>two cheeseburgers</t>
+  </si>
+  <si>
+    <t>five orders of fries</t>
+  </si>
+  <si>
+    <t>a diet coke and a large sprite</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>I need a burger</t>
+  </si>
+  <si>
+    <t>give me fries</t>
+  </si>
+  <si>
+    <t>no drinks</t>
+  </si>
+  <si>
+    <t>a coke</t>
+  </si>
+  <si>
+    <t>french fries</t>
+  </si>
+  <si>
+    <t>a cheeseburger large fries and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger</t>
+  </si>
+  <si>
+    <t>no sides</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with ketchup</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with ketchup</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with ketchup</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with ketchup</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with onions</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with onions</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with onions</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with onions</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with ketchup and no onions</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with ketchup and no onions</t>
+  </si>
+  <si>
+    <t>can I have a  medium cheeseburger with ketchup and no onions</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with ketchup and no onions</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with onions and no ketchup</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with onions and no ketchup</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with onions and no ketchup</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with onions and no ketchup</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger and fries</t>
+  </si>
+  <si>
+    <t>can I have a small  cheeseburger and fries</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger and fries</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger and fries</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger and small fries</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger and medium fries</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger and large fries</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger and small fries</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger and medium fries</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger and large fries</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger and small fires</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger and medium fries</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger and large fries</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger and small fries</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger and medium fries</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger and large fries</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger small fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger medium fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger large fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger fries and a small coke</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger fries and a medium coke</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger fries and a large coke</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger small fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger medium fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger large fries and a coke</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger small fries and a small coke</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger small fries and a medium coke</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger small fries and a large coke</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger small fries and a small coke</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger medium fries and a small coke</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger large fries and a small coke</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger small fries and a medium coke</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger small fries and a large coke</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger medium fries and a medium coke</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger medium fries and a large coke</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger and a cookie</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke and a cookie</t>
+  </si>
+  <si>
+    <t>order only registers cookie</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with fries coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with fries coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with fries coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with small fries coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with medium fries coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with large fries coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries small coke and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries medium coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries large coke and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke and medium ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke and large ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with fries coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with fries coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with fries coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with small fries coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with medium fries coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with large fries coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries small coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries medium coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries large coke chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke small chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke medium chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke large chicken nuggets and ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke chicken nuggets and medium ice cream</t>
+  </si>
+  <si>
+    <t>can I have a cheeseburger with fries coke chicken nuggets and large ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with small fries small coke medium chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with small fries large coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with small fries small coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with small fries small coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with small fries small coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with medium fries small coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with large fries small coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with small fries medium coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a small cheeseburger with small fries small coke large chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with small fries small coke small chicken nuggets and medium ice cream</t>
+  </si>
+  <si>
+    <t>can I have a large cheeseburger with small fries small coke small chicken nuggets and large ice cream</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with medium fries small coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with large fries small coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with small fries medium coke small chicken nuggets and small ice cream</t>
+  </si>
+  <si>
+    <t>can I have a medium cheeseburger with medium fries large coke small chicken nuggets and small ice cream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,8 +505,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +537,16 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,7 +557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -167,25 +569,269 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="82"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="82" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="11" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -541,7 +1187,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -549,39 +1195,39 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -589,55 +1235,55 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -645,28 +1291,322 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
-        <v>16</v>
+    <row r="21" spans="2:3">
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -678,4 +1618,1468 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D250"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="C146" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="C147" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4">
+      <c r="C148" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4">
+      <c r="C149" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4">
+      <c r="C151" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="C152" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4">
+      <c r="C153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4">
+      <c r="C154" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="C155" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="C156" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="C157" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4">
+      <c r="C158" t="s">
+        <v>96</v>
+      </c>
+      <c r="D158" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4">
+      <c r="C159" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="C160" t="s">
+        <v>97</v>
+      </c>
+      <c r="D160" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>